--- a/2020/Workers/ACS 2017-2021 Table B23025 County.xlsx
+++ b/2020/Workers/ACS 2017-2021 Table B23025 County.xlsx
@@ -3,18 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7EE063-9AD4-4DE2-9D12-22948DC7E318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3019BDD-389B-4CCD-A67E-BFF759F8F0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Data" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Data!$A:$A,Data!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Data (2)'!$A:$A,'Data (2)'!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
   <si>
     <t>EMPLOYMENT STATUS FOR THE POPULATION 16 YEARS AND OVER</t>
   </si>
@@ -235,211 +233,28 @@
     <t>Total:</t>
   </si>
   <si>
-    <t>1,367,247</t>
-  </si>
-  <si>
-    <t>930,333</t>
-  </si>
-  <si>
-    <t>216,621</t>
-  </si>
-  <si>
-    <t>114,351</t>
-  </si>
-  <si>
-    <t>759,882</t>
-  </si>
-  <si>
-    <t>625,530</t>
-  </si>
-  <si>
-    <t>1,558,810</t>
-  </si>
-  <si>
-    <t>362,423</t>
-  </si>
-  <si>
-    <t>407,504</t>
-  </si>
-  <si>
     <t>In labor force:</t>
   </si>
   <si>
-    <t>922,490</t>
-  </si>
-  <si>
-    <t>606,479</t>
-  </si>
-  <si>
-    <t>137,853</t>
-  </si>
-  <si>
-    <t>73,823</t>
-  </si>
-  <si>
-    <t>540,761</t>
-  </si>
-  <si>
-    <t>429,564</t>
-  </si>
-  <si>
-    <t>1,055,954</t>
-  </si>
-  <si>
-    <t>229,735</t>
-  </si>
-  <si>
-    <t>265,533</t>
-  </si>
-  <si>
     <t>Civilian labor force:</t>
   </si>
   <si>
-    <t>921,061</t>
-  </si>
-  <si>
-    <t>605,752</t>
-  </si>
-  <si>
-    <t>137,710</t>
-  </si>
-  <si>
-    <t>73,750</t>
-  </si>
-  <si>
-    <t>540,475</t>
-  </si>
-  <si>
-    <t>429,101</t>
-  </si>
-  <si>
-    <t>1,054,725</t>
-  </si>
-  <si>
-    <t>225,581</t>
-  </si>
-  <si>
-    <t>264,810</t>
-  </si>
-  <si>
     <t>Employed</t>
   </si>
   <si>
-    <t>874,563</t>
-  </si>
-  <si>
-    <t>570,386</t>
-  </si>
-  <si>
-    <t>130,613</t>
-  </si>
-  <si>
-    <t>70,147</t>
-  </si>
-  <si>
-    <t>511,902</t>
-  </si>
-  <si>
-    <t>409,344</t>
-  </si>
-  <si>
-    <t>1,007,768</t>
-  </si>
-  <si>
-    <t>212,151</t>
-  </si>
-  <si>
-    <t>251,382</t>
-  </si>
-  <si>
     <t>Unemployed</t>
   </si>
   <si>
-    <t>46,498</t>
-  </si>
-  <si>
-    <t>35,366</t>
-  </si>
-  <si>
-    <t>7,097</t>
-  </si>
-  <si>
-    <t>3,603</t>
-  </si>
-  <si>
-    <t>28,573</t>
-  </si>
-  <si>
-    <t>19,757</t>
-  </si>
-  <si>
-    <t>46,957</t>
-  </si>
-  <si>
-    <t>13,430</t>
-  </si>
-  <si>
-    <t>13,428</t>
-  </si>
-  <si>
     <t>Armed Forces</t>
   </si>
   <si>
-    <t>1,429</t>
-  </si>
-  <si>
-    <t>727</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>286</t>
-  </si>
-  <si>
-    <t>463</t>
-  </si>
-  <si>
-    <t>1,229</t>
-  </si>
-  <si>
-    <t>4,154</t>
-  </si>
-  <si>
-    <t>723</t>
-  </si>
-  <si>
     <t>Not in labor force</t>
   </si>
   <si>
-    <t>444,757</t>
-  </si>
-  <si>
-    <t>323,854</t>
-  </si>
-  <si>
-    <t>78,768</t>
-  </si>
-  <si>
-    <t>40,528</t>
-  </si>
-  <si>
-    <t>219,121</t>
-  </si>
-  <si>
-    <t>195,966</t>
-  </si>
-  <si>
-    <t>502,856</t>
-  </si>
-  <si>
-    <t>132,688</t>
-  </si>
-  <si>
-    <t>141,971</t>
+    <t>Total Employment (Civilian Employed + Armed Forces)</t>
+  </si>
+  <si>
+    <t>Bay Area</t>
   </si>
 </sst>
 </file>
@@ -475,7 +290,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -509,11 +324,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -537,13 +363,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -945,16 +778,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
@@ -964,440 +797,440 @@
       <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" ht="10.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10"/>
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" ht="10.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" ht="10.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" ht="10.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" ht="10.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" ht="10.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" ht="10.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" ht="10.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" ht="10.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" ht="10.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="10"/>
+      <c r="B15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3" ht="10.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" ht="21.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" ht="21.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" ht="10.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" ht="10.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3" ht="21.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" ht="21.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3" ht="21.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3" ht="21.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3" ht="21.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3" ht="10.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3" ht="10.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:3" ht="10.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="10"/>
+      <c r="B33" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3" ht="10.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="10"/>
+      <c r="C34" s="9"/>
     </row>
     <row r="35" spans="1:3" ht="10.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="10"/>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" spans="1:3" ht="10.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="10"/>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" spans="1:3" ht="10.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="10"/>
+      <c r="C37" s="9"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
     </row>
     <row r="39" spans="1:3" ht="21.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="10"/>
+      <c r="C39" s="9"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" spans="1:3" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="10"/>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" spans="1:3" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="10"/>
+      <c r="C42" s="9"/>
     </row>
     <row r="43" spans="1:3" ht="21.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="10"/>
+      <c r="C43" s="9"/>
     </row>
     <row r="44" spans="1:3" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="10"/>
+      <c r="C44" s="9"/>
     </row>
     <row r="45" spans="1:3" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="10"/>
+      <c r="C45" s="9"/>
     </row>
     <row r="46" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="10"/>
+      <c r="C46" s="9"/>
     </row>
     <row r="47" spans="1:3" ht="128" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="10"/>
+      <c r="C47" s="9"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
     </row>
     <row r="49" spans="1:3" ht="10.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="10"/>
+      <c r="C49" s="9"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="A48:C48"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="A50:C50"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1413,14 +1246,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26191832-630D-4871-B5C7-7BAED98B51B6}">
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1429,7 +1262,7 @@
     <col min="2" max="10" width="20" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1460,8 +1293,11 @@
       <c r="J1" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K1" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1493,7 +1329,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>63</v>
       </c>
@@ -1525,641 +1361,301 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="13">
+        <v>1367247</v>
+      </c>
+      <c r="C4" s="13">
+        <v>930333</v>
+      </c>
+      <c r="D4" s="13">
+        <v>216621</v>
+      </c>
+      <c r="E4" s="13">
+        <v>114351</v>
+      </c>
+      <c r="F4" s="13">
+        <v>759882</v>
+      </c>
+      <c r="G4" s="13">
+        <v>625530</v>
+      </c>
+      <c r="H4" s="13">
+        <v>1558810</v>
+      </c>
+      <c r="I4" s="13">
+        <v>362423</v>
+      </c>
+      <c r="J4" s="13">
+        <v>407504</v>
+      </c>
+      <c r="K4" s="14">
+        <f>SUM(B4:J4)</f>
+        <v>6342701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B5" s="13">
+        <v>922490</v>
+      </c>
+      <c r="C5" s="13">
+        <v>606479</v>
+      </c>
+      <c r="D5" s="13">
+        <v>137853</v>
+      </c>
+      <c r="E5" s="13">
+        <v>73823</v>
+      </c>
+      <c r="F5" s="13">
+        <v>540761</v>
+      </c>
+      <c r="G5" s="13">
+        <v>429564</v>
+      </c>
+      <c r="H5" s="13">
+        <v>1055954</v>
+      </c>
+      <c r="I5" s="13">
+        <v>229735</v>
+      </c>
+      <c r="J5" s="13">
+        <v>265533</v>
+      </c>
+      <c r="K5" s="14">
+        <f t="shared" ref="K5:K11" si="0">SUM(B5:J5)</f>
+        <v>4262192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="B6" s="13">
+        <v>921061</v>
+      </c>
+      <c r="C6" s="13">
+        <v>605752</v>
+      </c>
+      <c r="D6" s="13">
+        <v>137710</v>
+      </c>
+      <c r="E6" s="13">
+        <v>73750</v>
+      </c>
+      <c r="F6" s="13">
+        <v>540475</v>
+      </c>
+      <c r="G6" s="13">
+        <v>429101</v>
+      </c>
+      <c r="H6" s="13">
+        <v>1054725</v>
+      </c>
+      <c r="I6" s="13">
+        <v>225581</v>
+      </c>
+      <c r="J6" s="13">
+        <v>264810</v>
+      </c>
+      <c r="K6" s="14">
+        <f t="shared" si="0"/>
+        <v>4252965</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="B7" s="13">
+        <v>874563</v>
+      </c>
+      <c r="C7" s="13">
+        <v>570386</v>
+      </c>
+      <c r="D7" s="13">
+        <v>130613</v>
+      </c>
+      <c r="E7" s="13">
+        <v>70147</v>
+      </c>
+      <c r="F7" s="13">
+        <v>511902</v>
+      </c>
+      <c r="G7" s="13">
+        <v>409344</v>
+      </c>
+      <c r="H7" s="13">
+        <v>1007768</v>
+      </c>
+      <c r="I7" s="13">
+        <v>212151</v>
+      </c>
+      <c r="J7" s="13">
+        <v>251382</v>
+      </c>
+      <c r="K7" s="14">
+        <f t="shared" si="0"/>
+        <v>4038256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="B8" s="13">
+        <v>46498</v>
+      </c>
+      <c r="C8" s="13">
+        <v>35366</v>
+      </c>
+      <c r="D8" s="13">
+        <v>7097</v>
+      </c>
+      <c r="E8" s="13">
+        <v>3603</v>
+      </c>
+      <c r="F8" s="13">
+        <v>28573</v>
+      </c>
+      <c r="G8" s="13">
+        <v>19757</v>
+      </c>
+      <c r="H8" s="13">
+        <v>46957</v>
+      </c>
+      <c r="I8" s="13">
+        <v>13430</v>
+      </c>
+      <c r="J8" s="13">
+        <v>13428</v>
+      </c>
+      <c r="K8" s="14">
+        <f t="shared" si="0"/>
+        <v>214709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="B9" s="13">
+        <v>1429</v>
+      </c>
+      <c r="C9" s="13">
+        <v>727</v>
+      </c>
+      <c r="D9" s="13">
+        <v>143</v>
+      </c>
+      <c r="E9" s="13">
+        <v>73</v>
+      </c>
+      <c r="F9" s="13">
+        <v>286</v>
+      </c>
+      <c r="G9" s="13">
+        <v>463</v>
+      </c>
+      <c r="H9" s="13">
+        <v>1229</v>
+      </c>
+      <c r="I9" s="13">
+        <v>4154</v>
+      </c>
+      <c r="J9" s="13">
+        <v>723</v>
+      </c>
+      <c r="K9" s="14">
+        <f t="shared" si="0"/>
+        <v>9227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="B10" s="13">
+        <v>444757</v>
+      </c>
+      <c r="C10" s="13">
+        <v>323854</v>
+      </c>
+      <c r="D10" s="13">
+        <v>78768</v>
+      </c>
+      <c r="E10" s="13">
+        <v>40528</v>
+      </c>
+      <c r="F10" s="13">
+        <v>219121</v>
+      </c>
+      <c r="G10" s="13">
+        <v>195966</v>
+      </c>
+      <c r="H10" s="13">
+        <v>502856</v>
+      </c>
+      <c r="I10" s="13">
+        <v>132688</v>
+      </c>
+      <c r="J10" s="13">
+        <v>141971</v>
+      </c>
+      <c r="K10" s="14">
+        <f t="shared" si="0"/>
+        <v>2080509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions gridLines="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup pageOrder="overThenDown" orientation="landscape"/>
-  <headerFooter>
-    <oddHeader>&amp;LTable: ACSDT5YSPT2021.B23025</oddHeader>
-    <oddFooter>&amp;L&amp;Bdata.census.gov&amp;B | Measuring America's People, Places, and Economy &amp;R&amp;P</oddFooter>
-    <evenHeader>&amp;LTable: ACSDT5YSPT2021.B23025</evenHeader>
-    <evenFooter>&amp;L&amp;Bdata.census.gov&amp;B | Measuring America's People, Places, and Economy &amp;R&amp;P</evenFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26191832-630D-4871-B5C7-7BAED98B51B6}">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4:J10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="30" style="4" customWidth="1"/>
-    <col min="2" max="10" width="20" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="4">
-        <f>VALUE(Data!B4)</f>
-        <v>1367247</v>
-      </c>
-      <c r="C4" s="4">
-        <f>VALUE(Data!C4)</f>
-        <v>930333</v>
-      </c>
-      <c r="D4" s="4">
-        <f>VALUE(Data!D4)</f>
-        <v>216621</v>
-      </c>
-      <c r="E4" s="4">
-        <f>VALUE(Data!E4)</f>
-        <v>114351</v>
-      </c>
-      <c r="F4" s="4">
-        <f>VALUE(Data!F4)</f>
-        <v>759882</v>
-      </c>
-      <c r="G4" s="4">
-        <f>VALUE(Data!G4)</f>
-        <v>625530</v>
-      </c>
-      <c r="H4" s="4">
-        <f>VALUE(Data!H4)</f>
-        <v>1558810</v>
-      </c>
-      <c r="I4" s="4">
-        <f>VALUE(Data!I4)</f>
-        <v>362423</v>
-      </c>
-      <c r="J4" s="4">
-        <f>VALUE(Data!J4)</f>
-        <v>407504</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="4">
-        <f>VALUE(Data!B5)</f>
-        <v>922490</v>
-      </c>
-      <c r="C5" s="4">
-        <f>VALUE(Data!C5)</f>
-        <v>606479</v>
-      </c>
-      <c r="D5" s="4">
-        <f>VALUE(Data!D5)</f>
-        <v>137853</v>
-      </c>
-      <c r="E5" s="4">
-        <f>VALUE(Data!E5)</f>
-        <v>73823</v>
-      </c>
-      <c r="F5" s="4">
-        <f>VALUE(Data!F5)</f>
-        <v>540761</v>
-      </c>
-      <c r="G5" s="4">
-        <f>VALUE(Data!G5)</f>
-        <v>429564</v>
-      </c>
-      <c r="H5" s="4">
-        <f>VALUE(Data!H5)</f>
-        <v>1055954</v>
-      </c>
-      <c r="I5" s="4">
-        <f>VALUE(Data!I5)</f>
-        <v>229735</v>
-      </c>
-      <c r="J5" s="4">
-        <f>VALUE(Data!J5)</f>
-        <v>265533</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="4">
-        <f>VALUE(Data!B6)</f>
-        <v>921061</v>
-      </c>
-      <c r="C6" s="4">
-        <f>VALUE(Data!C6)</f>
-        <v>605752</v>
-      </c>
-      <c r="D6" s="4">
-        <f>VALUE(Data!D6)</f>
-        <v>137710</v>
-      </c>
-      <c r="E6" s="4">
-        <f>VALUE(Data!E6)</f>
-        <v>73750</v>
-      </c>
-      <c r="F6" s="4">
-        <f>VALUE(Data!F6)</f>
-        <v>540475</v>
-      </c>
-      <c r="G6" s="4">
-        <f>VALUE(Data!G6)</f>
-        <v>429101</v>
-      </c>
-      <c r="H6" s="4">
-        <f>VALUE(Data!H6)</f>
-        <v>1054725</v>
-      </c>
-      <c r="I6" s="4">
-        <f>VALUE(Data!I6)</f>
-        <v>225581</v>
-      </c>
-      <c r="J6" s="4">
-        <f>VALUE(Data!J6)</f>
-        <v>264810</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="4">
-        <f>VALUE(Data!B7)</f>
-        <v>874563</v>
-      </c>
-      <c r="C7" s="4">
-        <f>VALUE(Data!C7)</f>
-        <v>570386</v>
-      </c>
-      <c r="D7" s="4">
-        <f>VALUE(Data!D7)</f>
-        <v>130613</v>
-      </c>
-      <c r="E7" s="4">
-        <f>VALUE(Data!E7)</f>
-        <v>70147</v>
-      </c>
-      <c r="F7" s="4">
-        <f>VALUE(Data!F7)</f>
-        <v>511902</v>
-      </c>
-      <c r="G7" s="4">
-        <f>VALUE(Data!G7)</f>
-        <v>409344</v>
-      </c>
-      <c r="H7" s="4">
-        <f>VALUE(Data!H7)</f>
-        <v>1007768</v>
-      </c>
-      <c r="I7" s="4">
-        <f>VALUE(Data!I7)</f>
-        <v>212151</v>
-      </c>
-      <c r="J7" s="4">
-        <f>VALUE(Data!J7)</f>
-        <v>251382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="4">
-        <f>VALUE(Data!B8)</f>
-        <v>46498</v>
-      </c>
-      <c r="C8" s="4">
-        <f>VALUE(Data!C8)</f>
-        <v>35366</v>
-      </c>
-      <c r="D8" s="4">
-        <f>VALUE(Data!D8)</f>
-        <v>7097</v>
-      </c>
-      <c r="E8" s="4">
-        <f>VALUE(Data!E8)</f>
-        <v>3603</v>
-      </c>
-      <c r="F8" s="4">
-        <f>VALUE(Data!F8)</f>
-        <v>28573</v>
-      </c>
-      <c r="G8" s="4">
-        <f>VALUE(Data!G8)</f>
-        <v>19757</v>
-      </c>
-      <c r="H8" s="4">
-        <f>VALUE(Data!H8)</f>
-        <v>46957</v>
-      </c>
-      <c r="I8" s="4">
-        <f>VALUE(Data!I8)</f>
-        <v>13430</v>
-      </c>
-      <c r="J8" s="4">
-        <f>VALUE(Data!J8)</f>
-        <v>13428</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="4">
-        <f>VALUE(Data!B9)</f>
-        <v>1429</v>
-      </c>
-      <c r="C9" s="4">
-        <f>VALUE(Data!C9)</f>
-        <v>727</v>
-      </c>
-      <c r="D9" s="4">
-        <f>VALUE(Data!D9)</f>
-        <v>143</v>
-      </c>
-      <c r="E9" s="4">
-        <f>VALUE(Data!E9)</f>
-        <v>73</v>
-      </c>
-      <c r="F9" s="4">
-        <f>VALUE(Data!F9)</f>
-        <v>286</v>
-      </c>
-      <c r="G9" s="4">
-        <f>VALUE(Data!G9)</f>
-        <v>463</v>
-      </c>
-      <c r="H9" s="4">
-        <f>VALUE(Data!H9)</f>
-        <v>1229</v>
-      </c>
-      <c r="I9" s="4">
-        <f>VALUE(Data!I9)</f>
-        <v>4154</v>
-      </c>
-      <c r="J9" s="4">
-        <f>VALUE(Data!J9)</f>
-        <v>723</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="4">
-        <f>VALUE(Data!B10)</f>
-        <v>444757</v>
-      </c>
-      <c r="C10" s="4">
-        <f>VALUE(Data!C10)</f>
-        <v>323854</v>
-      </c>
-      <c r="D10" s="4">
-        <f>VALUE(Data!D10)</f>
-        <v>78768</v>
-      </c>
-      <c r="E10" s="4">
-        <f>VALUE(Data!E10)</f>
-        <v>40528</v>
-      </c>
-      <c r="F10" s="4">
-        <f>VALUE(Data!F10)</f>
-        <v>219121</v>
-      </c>
-      <c r="G10" s="4">
-        <f>VALUE(Data!G10)</f>
-        <v>195966</v>
-      </c>
-      <c r="H10" s="4">
-        <f>VALUE(Data!H10)</f>
-        <v>502856</v>
-      </c>
-      <c r="I10" s="4">
-        <f>VALUE(Data!I10)</f>
-        <v>132688</v>
-      </c>
-      <c r="J10" s="4">
-        <f>VALUE(Data!J10)</f>
-        <v>141971</v>
+      <c r="B11" s="13">
+        <f>B7+B9</f>
+        <v>875992</v>
+      </c>
+      <c r="C11" s="13">
+        <f>C7+C9</f>
+        <v>571113</v>
+      </c>
+      <c r="D11" s="13">
+        <f t="shared" ref="D11:J11" si="1">D7+D9</f>
+        <v>130756</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="1"/>
+        <v>70220</v>
+      </c>
+      <c r="F11" s="13">
+        <f t="shared" si="1"/>
+        <v>512188</v>
+      </c>
+      <c r="G11" s="13">
+        <f t="shared" si="1"/>
+        <v>409807</v>
+      </c>
+      <c r="H11" s="13">
+        <f t="shared" si="1"/>
+        <v>1008997</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" si="1"/>
+        <v>216305</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" si="1"/>
+        <v>252105</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="shared" si="0"/>
+        <v>4047483</v>
       </c>
     </row>
   </sheetData>
